--- a/Graph_result.xlsx
+++ b/Graph_result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/voronik/Desktop/Diplom/BioProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Diplom\BioProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69306291-E21E-884A-9947-0AE5A7ADDDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F5B114-2489-4942-AF37-2482611F8E4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="460" windowWidth="27560" windowHeight="17540" xr2:uid="{04640C6B-3096-0F41-B3FB-DE845C1C21C1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04640C6B-3096-0F41-B3FB-DE845C1C21C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Атом" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,6 @@
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3447,13 +3446,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2AECE7-05DC-6F4D-A2ED-1E87166D6425}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3461,12 +3460,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M18" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>797</v>
       </c>
@@ -3474,7 +3473,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>798</v>
       </c>
@@ -3482,7 +3481,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>825</v>
       </c>
@@ -3490,7 +3489,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>826</v>
       </c>
@@ -3498,7 +3497,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>827</v>
       </c>
@@ -3506,7 +3505,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>828</v>
       </c>
@@ -3514,7 +3513,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>955</v>
       </c>
@@ -3522,7 +3521,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>829</v>
       </c>
@@ -3530,7 +3529,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>830</v>
       </c>
@@ -3538,7 +3537,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>831</v>
       </c>
@@ -3546,7 +3545,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>807</v>
       </c>
@@ -3554,7 +3553,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>798</v>
       </c>
@@ -3562,7 +3561,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>808</v>
       </c>
@@ -3570,7 +3569,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>809</v>
       </c>
@@ -3578,7 +3577,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>832</v>
       </c>
@@ -3586,7 +3585,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>833</v>
       </c>
@@ -3594,7 +3593,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>834</v>
       </c>
@@ -3602,7 +3601,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>835</v>
       </c>
@@ -3610,7 +3609,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>836</v>
       </c>
@@ -3618,7 +3617,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>837</v>
       </c>
@@ -3626,7 +3625,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>838</v>
       </c>
@@ -3634,7 +3633,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>839</v>
       </c>
@@ -3642,7 +3641,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>840</v>
       </c>
@@ -3650,7 +3649,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>841</v>
       </c>
@@ -3658,7 +3657,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>842</v>
       </c>
@@ -3666,7 +3665,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>798</v>
       </c>
@@ -3674,7 +3673,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>843</v>
       </c>
@@ -3682,7 +3681,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>844</v>
       </c>
@@ -3690,7 +3689,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>845</v>
       </c>
@@ -3698,12 +3697,12 @@
         <v>824</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>798</v>
       </c>
@@ -3718,13 +3717,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9C53AE-A6C9-224D-A115-F663016EDE49}">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="114" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView zoomScale="114" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3732,7 +3731,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>797</v>
       </c>
@@ -3740,7 +3739,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>798</v>
       </c>
@@ -3748,7 +3747,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>848</v>
       </c>
@@ -3756,7 +3755,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>849</v>
       </c>
@@ -3764,7 +3763,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>850</v>
       </c>
@@ -3772,7 +3771,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>851</v>
       </c>
@@ -3780,7 +3779,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>852</v>
       </c>
@@ -3788,7 +3787,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>853</v>
       </c>
@@ -3796,7 +3795,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>854</v>
       </c>
@@ -3804,7 +3803,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>847</v>
       </c>
@@ -3812,7 +3811,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>807</v>
       </c>
@@ -3820,7 +3819,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>798</v>
       </c>
@@ -3828,7 +3827,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>808</v>
       </c>
@@ -3836,7 +3835,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>809</v>
       </c>
@@ -3844,7 +3843,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>855</v>
       </c>
@@ -3852,7 +3851,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>856</v>
       </c>
@@ -3860,7 +3859,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>857</v>
       </c>
@@ -3868,7 +3867,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>858</v>
       </c>
@@ -3876,7 +3875,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>859</v>
       </c>
@@ -3884,7 +3883,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>860</v>
       </c>
@@ -3892,7 +3891,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>798</v>
       </c>
@@ -3900,7 +3899,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>861</v>
       </c>
@@ -3908,7 +3907,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>862</v>
       </c>
@@ -3916,7 +3915,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>863</v>
       </c>
@@ -3924,7 +3923,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>864</v>
       </c>
@@ -3932,7 +3931,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>798</v>
       </c>
@@ -3940,12 +3939,12 @@
         <v>883</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O45" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O46" t="s">
         <v>798</v>
       </c>
@@ -3961,22 +3960,22 @@
   <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>615</v>
       </c>
@@ -4002,7 +4001,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4028,7 +4027,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -4054,7 +4053,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -4080,7 +4079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -4106,7 +4105,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -4132,7 +4131,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -4158,7 +4157,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -4184,7 +4183,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -4210,7 +4209,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -4236,7 +4235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -4262,7 +4261,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -4288,7 +4287,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -4314,7 +4313,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -4340,7 +4339,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -4366,7 +4365,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -4392,7 +4391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -4418,7 +4417,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -4444,7 +4443,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -4470,7 +4469,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -4496,7 +4495,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -4522,7 +4521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -4548,7 +4547,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -4574,7 +4573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -4600,7 +4599,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -4626,7 +4625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -4652,7 +4651,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -4678,7 +4677,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -4704,7 +4703,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -4730,7 +4729,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -4756,7 +4755,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -4782,7 +4781,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -4808,7 +4807,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -4834,7 +4833,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>124</v>
       </c>
@@ -4860,7 +4859,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -4886,7 +4885,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -4912,7 +4911,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -4938,7 +4937,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -4964,7 +4963,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -4990,7 +4989,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -5016,7 +5015,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -5042,7 +5041,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>93</v>
       </c>
@@ -5068,7 +5067,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>32</v>
       </c>
@@ -5094,7 +5093,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -5120,7 +5119,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>124</v>
       </c>
@@ -5146,7 +5145,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -5172,7 +5171,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -5198,7 +5197,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -5224,7 +5223,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>80</v>
       </c>
@@ -5250,7 +5249,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -5276,7 +5275,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -5302,7 +5301,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>124</v>
       </c>
@@ -5328,7 +5327,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -5354,7 +5353,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -5380,7 +5379,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -5406,7 +5405,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -5432,7 +5431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>46</v>
       </c>
@@ -5458,7 +5457,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>124</v>
       </c>
@@ -5484,7 +5483,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>191</v>
       </c>
@@ -5510,7 +5509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>50</v>
       </c>
@@ -5536,7 +5535,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>199</v>
       </c>
@@ -5562,7 +5561,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -5588,7 +5587,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>70</v>
       </c>
@@ -5614,7 +5613,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>37</v>
       </c>
@@ -5640,7 +5639,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>42</v>
       </c>
@@ -5666,7 +5665,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -5692,7 +5691,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -5718,7 +5717,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>37</v>
       </c>
@@ -5744,7 +5743,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -5770,7 +5769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -5796,7 +5795,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>50</v>
       </c>
@@ -5822,7 +5821,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -5848,7 +5847,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>124</v>
       </c>
@@ -5874,7 +5873,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H74" s="1"/>
     </row>
   </sheetData>
@@ -5890,19 +5889,19 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>615</v>
       </c>
@@ -5934,7 +5933,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>231</v>
       </c>
@@ -5966,7 +5965,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>239</v>
       </c>
@@ -5998,7 +5997,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>239</v>
       </c>
@@ -6030,7 +6029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>250</v>
       </c>
@@ -6062,7 +6061,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>256</v>
       </c>
@@ -6094,7 +6093,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>263</v>
       </c>
@@ -6126,7 +6125,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>269</v>
       </c>
@@ -6158,7 +6157,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>275</v>
       </c>
@@ -6190,7 +6189,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>281</v>
       </c>
@@ -6222,7 +6221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>239</v>
       </c>
@@ -6254,7 +6253,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>256</v>
       </c>
@@ -6286,7 +6285,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>275</v>
       </c>
@@ -6318,7 +6317,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>231</v>
       </c>
@@ -6350,7 +6349,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>275</v>
       </c>
@@ -6382,7 +6381,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>239</v>
       </c>
@@ -6414,7 +6413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>275</v>
       </c>
@@ -6446,7 +6445,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>309</v>
       </c>
@@ -6478,7 +6477,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>263</v>
       </c>
@@ -6510,7 +6509,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>316</v>
       </c>
@@ -6542,7 +6541,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>239</v>
       </c>
@@ -6574,7 +6573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>281</v>
       </c>
@@ -6606,7 +6605,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>275</v>
       </c>
@@ -6638,7 +6637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>316</v>
       </c>
@@ -6670,7 +6669,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>231</v>
       </c>
@@ -6702,7 +6701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>263</v>
       </c>
@@ -6734,7 +6733,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>263</v>
       </c>
@@ -6766,7 +6765,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>281</v>
       </c>
@@ -6798,7 +6797,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>239</v>
       </c>
@@ -6830,7 +6829,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>281</v>
       </c>
@@ -6862,7 +6861,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>263</v>
       </c>
@@ -6894,7 +6893,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>231</v>
       </c>
@@ -6926,7 +6925,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>263</v>
       </c>
@@ -6958,7 +6957,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>275</v>
       </c>
@@ -6990,7 +6989,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>275</v>
       </c>
@@ -7022,7 +7021,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>239</v>
       </c>
@@ -7054,7 +7053,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>309</v>
       </c>
@@ -7086,7 +7085,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>263</v>
       </c>
@@ -7118,7 +7117,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>281</v>
       </c>
@@ -7150,7 +7149,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>281</v>
       </c>
@@ -7182,7 +7181,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>263</v>
       </c>
@@ -7214,7 +7213,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>316</v>
       </c>
@@ -7246,7 +7245,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>263</v>
       </c>
@@ -7278,7 +7277,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>250</v>
       </c>
@@ -7310,7 +7309,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>309</v>
       </c>
@@ -7342,7 +7341,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>263</v>
       </c>
@@ -7374,7 +7373,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>281</v>
       </c>
@@ -7406,7 +7405,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>263</v>
       </c>
@@ -7438,7 +7437,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>250</v>
       </c>
@@ -7470,7 +7469,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>281</v>
       </c>
@@ -7502,7 +7501,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>309</v>
       </c>
@@ -7534,7 +7533,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>269</v>
       </c>
@@ -7566,7 +7565,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>250</v>
       </c>
@@ -7598,7 +7597,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>309</v>
       </c>
@@ -7630,7 +7629,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>281</v>
       </c>
@@ -7662,7 +7661,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>239</v>
       </c>
@@ -7694,7 +7693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>250</v>
       </c>
@@ -7726,7 +7725,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>231</v>
       </c>
@@ -7758,7 +7757,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>256</v>
       </c>
@@ -7790,7 +7789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>256</v>
       </c>
@@ -7822,7 +7821,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>309</v>
       </c>
@@ -7854,7 +7853,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>309</v>
       </c>
@@ -7886,7 +7885,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>309</v>
       </c>
@@ -7918,7 +7917,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>231</v>
       </c>
@@ -7950,7 +7949,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>231</v>
       </c>
@@ -7982,7 +7981,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>316</v>
       </c>
@@ -8014,7 +8013,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>239</v>
       </c>
@@ -8046,7 +8045,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>231</v>
       </c>
@@ -8078,7 +8077,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>281</v>
       </c>
@@ -8110,7 +8109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>231</v>
       </c>
@@ -8142,7 +8141,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>269</v>
       </c>
@@ -8174,7 +8173,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>231</v>
       </c>
@@ -8206,7 +8205,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>231</v>
       </c>
@@ -8238,7 +8237,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J74" s="1"/>
     </row>
   </sheetData>
@@ -8251,23 +8250,23 @@
   <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L74"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>615</v>
       </c>
@@ -8308,7 +8307,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>456</v>
       </c>
@@ -8349,7 +8348,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>456</v>
       </c>
@@ -8390,7 +8389,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>456</v>
       </c>
@@ -8431,7 +8430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>456</v>
       </c>
@@ -8472,7 +8471,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>456</v>
       </c>
@@ -8513,7 +8512,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>456</v>
       </c>
@@ -8554,7 +8553,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>456</v>
       </c>
@@ -8595,7 +8594,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>456</v>
       </c>
@@ -8636,7 +8635,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>456</v>
       </c>
@@ -8677,7 +8676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>456</v>
       </c>
@@ -8718,7 +8717,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>456</v>
       </c>
@@ -8759,7 +8758,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>456</v>
       </c>
@@ -8800,7 +8799,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>456</v>
       </c>
@@ -8841,7 +8840,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>456</v>
       </c>
@@ -8882,7 +8881,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>456</v>
       </c>
@@ -8923,7 +8922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>456</v>
       </c>
@@ -8964,7 +8963,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>456</v>
       </c>
@@ -9005,7 +9004,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>456</v>
       </c>
@@ -9046,7 +9045,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>490</v>
       </c>
@@ -9087,7 +9086,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>456</v>
       </c>
@@ -9128,7 +9127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>456</v>
       </c>
@@ -9169,7 +9168,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>456</v>
       </c>
@@ -9210,7 +9209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>456</v>
       </c>
@@ -9251,7 +9250,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>456</v>
       </c>
@@ -9292,7 +9291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>456</v>
       </c>
@@ -9333,7 +9332,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>456</v>
       </c>
@@ -9374,7 +9373,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>456</v>
       </c>
@@ -9415,7 +9414,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>456</v>
       </c>
@@ -9456,7 +9455,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>456</v>
       </c>
@@ -9497,7 +9496,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>456</v>
       </c>
@@ -9538,7 +9537,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>456</v>
       </c>
@@ -9579,7 +9578,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>456</v>
       </c>
@@ -9620,7 +9619,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>456</v>
       </c>
@@ -9661,7 +9660,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>456</v>
       </c>
@@ -9702,7 +9701,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>456</v>
       </c>
@@ -9743,7 +9742,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>456</v>
       </c>
@@ -9784,7 +9783,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>456</v>
       </c>
@@ -9825,7 +9824,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>456</v>
       </c>
@@ -9866,7 +9865,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>456</v>
       </c>
@@ -9907,7 +9906,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>456</v>
       </c>
@@ -9948,7 +9947,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>456</v>
       </c>
@@ -9989,7 +9988,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>456</v>
       </c>
@@ -10030,7 +10029,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>456</v>
       </c>
@@ -10071,7 +10070,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>456</v>
       </c>
@@ -10112,7 +10111,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>456</v>
       </c>
@@ -10153,7 +10152,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>456</v>
       </c>
@@ -10194,7 +10193,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>456</v>
       </c>
@@ -10235,7 +10234,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>456</v>
       </c>
@@ -10276,7 +10275,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>456</v>
       </c>
@@ -10317,7 +10316,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>456</v>
       </c>
@@ -10358,7 +10357,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>456</v>
       </c>
@@ -10399,7 +10398,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>456</v>
       </c>
@@ -10440,7 +10439,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>456</v>
       </c>
@@ -10481,7 +10480,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>490</v>
       </c>
@@ -10522,7 +10521,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>456</v>
       </c>
@@ -10563,7 +10562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>456</v>
       </c>
@@ -10604,7 +10603,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>456</v>
       </c>
@@ -10645,7 +10644,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>490</v>
       </c>
@@ -10686,7 +10685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>456</v>
       </c>
@@ -10727,7 +10726,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>456</v>
       </c>
@@ -10768,7 +10767,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>456</v>
       </c>
@@ -10809,7 +10808,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>456</v>
       </c>
@@ -10850,7 +10849,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>456</v>
       </c>
@@ -10891,7 +10890,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>456</v>
       </c>
@@ -10932,7 +10931,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>456</v>
       </c>
@@ -10973,7 +10972,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>456</v>
       </c>
@@ -11014,7 +11013,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>456</v>
       </c>
@@ -11055,7 +11054,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>456</v>
       </c>
@@ -11096,7 +11095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>456</v>
       </c>
@@ -11137,7 +11136,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>456</v>
       </c>
@@ -11178,7 +11177,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>456</v>
       </c>
@@ -11219,7 +11218,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>456</v>
       </c>
@@ -11260,7 +11259,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M74" s="1"/>
     </row>
   </sheetData>
@@ -11273,23 +11272,23 @@
   <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L74"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>615</v>
       </c>
@@ -11330,7 +11329,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>567</v>
       </c>
@@ -11371,7 +11370,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>567</v>
       </c>
@@ -11412,7 +11411,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>567</v>
       </c>
@@ -11453,7 +11452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>567</v>
       </c>
@@ -11494,7 +11493,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>567</v>
       </c>
@@ -11535,7 +11534,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>567</v>
       </c>
@@ -11576,7 +11575,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>567</v>
       </c>
@@ -11617,7 +11616,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>567</v>
       </c>
@@ -11658,7 +11657,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>567</v>
       </c>
@@ -11699,7 +11698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>567</v>
       </c>
@@ -11740,7 +11739,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>567</v>
       </c>
@@ -11781,7 +11780,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>567</v>
       </c>
@@ -11822,7 +11821,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>567</v>
       </c>
@@ -11863,7 +11862,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>567</v>
       </c>
@@ -11904,7 +11903,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>567</v>
       </c>
@@ -11945,7 +11944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>567</v>
       </c>
@@ -11986,7 +11985,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>567</v>
       </c>
@@ -12027,7 +12026,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>567</v>
       </c>
@@ -12068,7 +12067,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>567</v>
       </c>
@@ -12109,7 +12108,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>567</v>
       </c>
@@ -12150,7 +12149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>567</v>
       </c>
@@ -12191,7 +12190,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>567</v>
       </c>
@@ -12232,7 +12231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>567</v>
       </c>
@@ -12273,7 +12272,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>567</v>
       </c>
@@ -12314,7 +12313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>567</v>
       </c>
@@ -12355,7 +12354,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>567</v>
       </c>
@@ -12396,7 +12395,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>567</v>
       </c>
@@ -12437,7 +12436,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>567</v>
       </c>
@@ -12478,7 +12477,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>567</v>
       </c>
@@ -12519,7 +12518,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>567</v>
       </c>
@@ -12560,7 +12559,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>567</v>
       </c>
@@ -12601,7 +12600,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>567</v>
       </c>
@@ -12642,7 +12641,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>567</v>
       </c>
@@ -12683,7 +12682,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>567</v>
       </c>
@@ -12724,7 +12723,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>567</v>
       </c>
@@ -12765,7 +12764,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>567</v>
       </c>
@@ -12806,7 +12805,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>567</v>
       </c>
@@ -12847,7 +12846,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>567</v>
       </c>
@@ -12888,7 +12887,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>567</v>
       </c>
@@ -12929,7 +12928,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>567</v>
       </c>
@@ -12970,7 +12969,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>567</v>
       </c>
@@ -13011,7 +13010,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>567</v>
       </c>
@@ -13052,7 +13051,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>567</v>
       </c>
@@ -13093,7 +13092,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>567</v>
       </c>
@@ -13134,7 +13133,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>567</v>
       </c>
@@ -13175,7 +13174,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>567</v>
       </c>
@@ -13216,7 +13215,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>567</v>
       </c>
@@ -13257,7 +13256,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>567</v>
       </c>
@@ -13298,7 +13297,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>567</v>
       </c>
@@ -13339,7 +13338,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>567</v>
       </c>
@@ -13380,7 +13379,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>567</v>
       </c>
@@ -13421,7 +13420,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>567</v>
       </c>
@@ -13462,7 +13461,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>567</v>
       </c>
@@ -13503,7 +13502,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>567</v>
       </c>
@@ -13544,7 +13543,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>567</v>
       </c>
@@ -13585,7 +13584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>567</v>
       </c>
@@ -13626,7 +13625,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>567</v>
       </c>
@@ -13667,7 +13666,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>567</v>
       </c>
@@ -13708,7 +13707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>567</v>
       </c>
@@ -13749,7 +13748,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>567</v>
       </c>
@@ -13790,7 +13789,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>567</v>
       </c>
@@ -13831,7 +13830,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>567</v>
       </c>
@@ -13872,7 +13871,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>567</v>
       </c>
@@ -13913,7 +13912,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>567</v>
       </c>
@@ -13954,7 +13953,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>567</v>
       </c>
@@ -13995,7 +13994,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>567</v>
       </c>
@@ -14036,7 +14035,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>567</v>
       </c>
@@ -14077,7 +14076,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>567</v>
       </c>
@@ -14118,7 +14117,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>567</v>
       </c>
@@ -14159,7 +14158,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>567</v>
       </c>
@@ -14200,7 +14199,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>567</v>
       </c>
@@ -14241,7 +14240,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>567</v>
       </c>
@@ -14282,7 +14281,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M74" s="1"/>
     </row>
   </sheetData>
